--- a/Input/Lotka_Volterra_realistic.xlsx
+++ b/Input/Lotka_Volterra_realistic.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">r</t>
   </si>
   <si>
-    <t xml:space="preserve">N*( r*(1-(N/K)) – ((k*P)/(N+D)))</t>
+    <t xml:space="preserve">N*((r*(1-(N/K)))-((k*P)/(N+D)))</t>
   </si>
   <si>
     <t xml:space="preserve">P</t>
@@ -80,32 +80,27 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +150,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,7 +177,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.82"/>
